--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.27132566666667</v>
+        <v>21.65036466666666</v>
       </c>
       <c r="H2">
-        <v>93.81397700000001</v>
+        <v>64.951094</v>
       </c>
       <c r="I2">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050746</v>
       </c>
       <c r="J2">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050747</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>3660.138647085684</v>
+        <v>1669.016292146175</v>
       </c>
       <c r="R2">
-        <v>32941.24782377115</v>
+        <v>15021.14662931558</v>
       </c>
       <c r="S2">
-        <v>0.3080942788078155</v>
+        <v>0.2231783685694413</v>
       </c>
       <c r="T2">
-        <v>0.3080942788078155</v>
+        <v>0.2231783685694413</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.27132566666667</v>
+        <v>21.65036466666666</v>
       </c>
       <c r="H3">
-        <v>93.81397700000001</v>
+        <v>64.951094</v>
       </c>
       <c r="I3">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050746</v>
       </c>
       <c r="J3">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050747</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>3176.542428682825</v>
+        <v>2199.244851120281</v>
       </c>
       <c r="R3">
-        <v>28588.88185814543</v>
+        <v>19793.20366008253</v>
       </c>
       <c r="S3">
-        <v>0.2673872885790031</v>
+        <v>0.2940797404239963</v>
       </c>
       <c r="T3">
-        <v>0.2673872885790031</v>
+        <v>0.2940797404239963</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.27132566666667</v>
+        <v>21.65036466666666</v>
       </c>
       <c r="H4">
-        <v>93.81397700000001</v>
+        <v>64.951094</v>
       </c>
       <c r="I4">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050746</v>
       </c>
       <c r="J4">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050747</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>4441.365982633727</v>
+        <v>3074.93178150251</v>
       </c>
       <c r="R4">
-        <v>39972.29384370354</v>
+        <v>27674.38603352259</v>
       </c>
       <c r="S4">
-        <v>0.3738545397537422</v>
+        <v>0.4111752903116371</v>
       </c>
       <c r="T4">
-        <v>0.3738545397537422</v>
+        <v>0.4111752903116371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9680500000000002</v>
+        <v>0.96805</v>
       </c>
       <c r="H5">
         <v>2.90415</v>
       </c>
       <c r="I5">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="J5">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>113.30498921215</v>
+        <v>74.62651306283333</v>
       </c>
       <c r="R5">
-        <v>1019.74490290935</v>
+        <v>671.6386175655</v>
       </c>
       <c r="S5">
-        <v>0.009537512729043749</v>
+        <v>0.009978945990978118</v>
       </c>
       <c r="T5">
-        <v>0.009537512729043749</v>
+        <v>0.009978945990978118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9680500000000002</v>
+        <v>0.96805</v>
       </c>
       <c r="H6">
         <v>2.90415</v>
       </c>
       <c r="I6">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="J6">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
-        <v>98.33455514053335</v>
+        <v>98.33455514053334</v>
       </c>
       <c r="R6">
-        <v>885.0109962648002</v>
+        <v>885.0109962648</v>
       </c>
       <c r="S6">
-        <v>0.008277367818301871</v>
+        <v>0.0131491500074248</v>
       </c>
       <c r="T6">
-        <v>0.00827736781830187</v>
+        <v>0.0131491500074248</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9680500000000002</v>
+        <v>0.96805</v>
       </c>
       <c r="H7">
         <v>2.90415</v>
       </c>
       <c r="I7">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="J7">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
-        <v>137.4890334141334</v>
+        <v>137.4890334141333</v>
       </c>
       <c r="R7">
         <v>1237.4013007272</v>
       </c>
       <c r="S7">
-        <v>0.0115732185794216</v>
+        <v>0.01838482842734783</v>
       </c>
       <c r="T7">
-        <v>0.0115732185794216</v>
+        <v>0.01838482842734783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.102487</v>
       </c>
       <c r="I8">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="J8">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>82.028224042727</v>
+        <v>54.02657354817667</v>
       </c>
       <c r="R8">
-        <v>738.254016384543</v>
+        <v>486.23916193359</v>
       </c>
       <c r="S8">
-        <v>0.006904773005922215</v>
+        <v>0.007224352812263008</v>
       </c>
       <c r="T8">
-        <v>0.006904773005922215</v>
+        <v>0.007224352812263007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.102487</v>
       </c>
       <c r="I9">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="J9">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>71.19023598428268</v>
@@ -1004,10 +1004,10 @@
         <v>640.712123858544</v>
       </c>
       <c r="S9">
-        <v>0.005992479118571026</v>
+        <v>0.009519452146638621</v>
       </c>
       <c r="T9">
-        <v>0.005992479118571025</v>
+        <v>0.009519452146638617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.102487</v>
       </c>
       <c r="I10">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="J10">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>99.53649274169068</v>
@@ -1066,10 +1066,10 @@
         <v>895.828434675216</v>
       </c>
       <c r="S10">
-        <v>0.008378541608178769</v>
+        <v>0.01330987131027297</v>
       </c>
       <c r="T10">
-        <v>0.008378541608178769</v>
+        <v>0.01330987131027297</v>
       </c>
     </row>
   </sheetData>
